--- a/outputs/SORs/SOR Testing_AMC Aerospace Solutions Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Aerospace Solutions Division.xlsx
@@ -11,15 +11,15 @@
     <sheet name="Downers Grove Aerospace Illino" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Hemel Hempstead United Kingdom" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Hyderabad Pmc India" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="La Guerche l'Aubois France" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Milwaukee Pmc Hq Wisconsin" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Monticello Indiana" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Shanghai Pmc China" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Silvestre Terrazas, Chihuahua " sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Simi Valley California" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Twinsburg Ohio" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Downers Grove Illinois" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Betzdorf Germany" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Milwaukee Pmc Hq Wisconsin" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Monticello Indiana" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Shanghai Pmc China" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Silvestre Terrazas, Chihuahua " sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Simi Valley California" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Twinsburg Ohio" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Downers Grove Illinois" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Betzdorf Germany" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="La Guerche l'Aubois France" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="Apodaca Pmc Plant 1 Mexico" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
 </workbook>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -136,9 +136,6 @@
     <t xml:space="preserve">Hyderabad Pmc India</t>
   </si>
   <si>
-    <t xml:space="preserve">La Guerche l'Aubois France</t>
-  </si>
-  <si>
     <t xml:space="preserve">Milwaukee Pmc Hq Wisconsin</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t xml:space="preserve">Betzdorf Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Guerche l'Aubois France</t>
   </si>
   <si>
     <t xml:space="preserve">Apodaca Pmc Plant 1 Mexico</t>
@@ -920,28 +920,28 @@
         <v>27</v>
       </c>
       <c r="G2" s="10" t="n">
-        <v>0.0769</v>
+        <v>0</v>
       </c>
       <c r="H2" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="10" t="n">
-        <v>0.0667</v>
+        <v>0.0426</v>
       </c>
       <c r="J2" s="10" t="n">
-        <v>0.146</v>
+        <v>0.0419</v>
       </c>
       <c r="K2" s="10" t="n">
-        <v>0</v>
+        <v>0.0435</v>
       </c>
       <c r="L2" s="10" t="n">
         <v>0</v>
       </c>
       <c r="M2" s="10" t="n">
-        <v>0</v>
+        <v>0.0208</v>
       </c>
       <c r="N2" s="10" t="n">
-        <v>0</v>
+        <v>0.0634</v>
       </c>
       <c r="O2" s="10" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="Q2" s="10" t="n">
-        <v>0</v>
+        <v>0.0417</v>
       </c>
       <c r="R2" s="10" t="n">
-        <v>0</v>
+        <v>0.0419</v>
       </c>
       <c r="S2" s="10" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="T2" s="10" t="n">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="V2" s="10" t="n">
-        <v>0.0389</v>
+        <v>0</v>
       </c>
       <c r="W2" s="10" t="n">
-        <v>0.1538</v>
+        <v>0.1455</v>
       </c>
     </row>
     <row r="3">
@@ -991,28 +991,28 @@
         <v>28</v>
       </c>
       <c r="G3" s="10" t="n">
-        <v>0.06921</v>
+        <v>0</v>
       </c>
       <c r="H3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="10" t="n">
-        <v>0.06003</v>
+        <v>0.03834</v>
       </c>
       <c r="J3" s="10" t="n">
-        <v>0.1314</v>
+        <v>0.03771</v>
       </c>
       <c r="K3" s="10" t="n">
-        <v>0</v>
+        <v>0.03915</v>
       </c>
       <c r="L3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="M3" s="10" t="n">
-        <v>0</v>
+        <v>0.01872</v>
       </c>
       <c r="N3" s="10" t="n">
-        <v>0</v>
+        <v>0.05706</v>
       </c>
       <c r="O3" s="10" t="n">
         <v>0</v>
@@ -1021,13 +1021,13 @@
         <v>0</v>
       </c>
       <c r="Q3" s="10" t="n">
-        <v>0</v>
+        <v>0.03753</v>
       </c>
       <c r="R3" s="10" t="n">
-        <v>0</v>
+        <v>0.03771</v>
       </c>
       <c r="S3" s="10" t="n">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="T3" s="10" t="n">
         <v>0</v>
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="V3" s="10" t="n">
-        <v>0.03501</v>
+        <v>0</v>
       </c>
       <c r="W3" s="10" t="n">
-        <v>0.13842</v>
+        <v>0.13095</v>
       </c>
     </row>
     <row r="4">
@@ -1062,19 +1062,19 @@
         <v>29</v>
       </c>
       <c r="G4" s="10" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H4" s="10" t="n">
-        <v>0</v>
+        <v>0.0208</v>
       </c>
       <c r="I4" s="10" t="n">
-        <v>0</v>
+        <v>0.0204</v>
       </c>
       <c r="J4" s="10" t="n">
-        <v>0</v>
+        <v>0.0612</v>
       </c>
       <c r="K4" s="10" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L4" s="10" t="n">
         <v>0</v>
@@ -1127,45 +1127,43 @@
         <v>32</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10"/>
       <c r="M5" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10" t="n">
-        <v>0</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10"/>
       <c r="R5" s="10" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
+      <c r="T5" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
+      <c r="V5" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="W5" s="10" t="n">
-        <v>0.166666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
@@ -1182,7 +1180,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1253,57 +1251,57 @@
         <v>32</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="J7" s="10" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="K7" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="L7" s="10" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="M7" s="10" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="N7" s="10" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="O7" s="10" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="P7" s="10" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="10" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="R7" s="10" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="S7" s="10" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="T7" s="10" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="U7" s="10" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="V7" s="10" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="W7" s="10" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1320,61 +1318,61 @@
         <v>33</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="10" t="n">
-        <v>0.04</v>
+        <v>0.0171</v>
       </c>
       <c r="H8" s="10" t="n">
-        <v>0.0476</v>
+        <v>0.0173</v>
       </c>
       <c r="I8" s="10" t="n">
-        <v>0</v>
+        <v>0.0175</v>
       </c>
       <c r="J8" s="10" t="n">
-        <v>0.0826</v>
+        <v>0.052</v>
       </c>
       <c r="K8" s="10" t="n">
-        <v>0.0204</v>
+        <v>0.0057</v>
       </c>
       <c r="L8" s="10" t="n">
-        <v>0.0385</v>
+        <v>0.0173</v>
       </c>
       <c r="M8" s="10" t="n">
-        <v>0.0172</v>
+        <v>0.0115</v>
       </c>
       <c r="N8" s="10" t="n">
-        <v>0.0755</v>
+        <v>0.0345</v>
       </c>
       <c r="O8" s="10" t="n">
-        <v>0.0169</v>
+        <v>0.0113</v>
       </c>
       <c r="P8" s="10" t="n">
-        <v>0.0536</v>
+        <v>0.0057</v>
       </c>
       <c r="Q8" s="10" t="n">
-        <v>0.0333</v>
+        <v>0.0113</v>
       </c>
       <c r="R8" s="10" t="n">
-        <v>0.1029</v>
+        <v>0.0283</v>
       </c>
       <c r="S8" s="10" t="n">
-        <v>0.0492</v>
+        <v>0</v>
       </c>
       <c r="T8" s="10" t="n">
-        <v>0.0308</v>
+        <v>0.0054</v>
       </c>
       <c r="U8" s="10" t="n">
-        <v>0.0267</v>
+        <v>0.0108</v>
       </c>
       <c r="V8" s="10" t="n">
-        <v>0.1045</v>
+        <v>0.0163</v>
       </c>
       <c r="W8" s="10" t="n">
-        <v>0.3724</v>
+        <v>0.1301</v>
       </c>
     </row>
     <row r="9">
@@ -1391,61 +1389,61 @@
         <v>33</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="10" t="n">
-        <v>0.036</v>
+        <v>0.01539</v>
       </c>
       <c r="H9" s="10" t="n">
-        <v>0.04284</v>
+        <v>0.01557</v>
       </c>
       <c r="I9" s="10" t="n">
-        <v>0</v>
+        <v>0.01575</v>
       </c>
       <c r="J9" s="10" t="n">
-        <v>0.07434</v>
+        <v>0.0468</v>
       </c>
       <c r="K9" s="10" t="n">
-        <v>0.01836</v>
+        <v>0.00513</v>
       </c>
       <c r="L9" s="10" t="n">
-        <v>0.03465</v>
+        <v>0.01557</v>
       </c>
       <c r="M9" s="10" t="n">
-        <v>0.01548</v>
+        <v>0.01035</v>
       </c>
       <c r="N9" s="10" t="n">
-        <v>0.06795</v>
+        <v>0.03105</v>
       </c>
       <c r="O9" s="10" t="n">
-        <v>0.01521</v>
+        <v>0.01017</v>
       </c>
       <c r="P9" s="10" t="n">
-        <v>0.04824</v>
+        <v>0.00513</v>
       </c>
       <c r="Q9" s="10" t="n">
-        <v>0.02997</v>
+        <v>0.01017</v>
       </c>
       <c r="R9" s="10" t="n">
-        <v>0.09261</v>
+        <v>0.02547</v>
       </c>
       <c r="S9" s="10" t="n">
-        <v>0.04428</v>
+        <v>0</v>
       </c>
       <c r="T9" s="10" t="n">
-        <v>0.02772</v>
+        <v>0.00486</v>
       </c>
       <c r="U9" s="10" t="n">
-        <v>0.02403</v>
+        <v>0.00972</v>
       </c>
       <c r="V9" s="10" t="n">
-        <v>0.09405</v>
+        <v>0.01467</v>
       </c>
       <c r="W9" s="10" t="n">
-        <v>0.33516</v>
+        <v>0.11709</v>
       </c>
     </row>
     <row r="10">
@@ -1462,61 +1460,61 @@
         <v>33</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="10" t="n">
-        <v>0.0278</v>
+        <v>0.0054</v>
       </c>
       <c r="H10" s="10" t="n">
-        <v>0.0235</v>
+        <v>0.0054</v>
       </c>
       <c r="I10" s="10" t="n">
-        <v>0</v>
+        <v>0.0053</v>
       </c>
       <c r="J10" s="10" t="n">
-        <v>0.0498</v>
+        <v>0.0162</v>
       </c>
       <c r="K10" s="10" t="n">
-        <v>0.0119</v>
+        <v>0</v>
       </c>
       <c r="L10" s="10" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="M10" s="10" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="N10" s="10" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O10" s="10" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="P10" s="10" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q10" s="10" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R10" s="10" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S10" s="10" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T10" s="10" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U10" s="10" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V10" s="10" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="W10" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1630,34 +1628,34 @@
         <v>0</v>
       </c>
       <c r="I2" s="11" t="n">
-        <v>0.0435</v>
+        <v>0</v>
       </c>
       <c r="J2" s="11" t="n">
-        <v>0.0428</v>
+        <v>0</v>
       </c>
       <c r="K2" s="11" t="n">
-        <v>0.0444</v>
+        <v>0</v>
       </c>
       <c r="L2" s="11" t="n">
-        <v>0</v>
+        <v>0.0769</v>
       </c>
       <c r="M2" s="11" t="n">
-        <v>0.0213</v>
+        <v>0</v>
       </c>
       <c r="N2" s="11" t="n">
-        <v>0.0648</v>
+        <v>0.0752</v>
       </c>
       <c r="O2" s="11" t="n">
         <v>0</v>
       </c>
       <c r="P2" s="11" t="n">
-        <v>0</v>
+        <v>0.0769</v>
       </c>
       <c r="Q2" s="11" t="n">
-        <v>0.0426</v>
+        <v>0</v>
       </c>
       <c r="R2" s="11" t="n">
-        <v>0.0428</v>
+        <v>0.0787</v>
       </c>
       <c r="S2" s="11" t="n">
         <v>0</v>
@@ -1672,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="11" t="n">
-        <v>0.1486</v>
+        <v>0.1493</v>
       </c>
     </row>
     <row r="3">
@@ -1701,34 +1699,34 @@
         <v>0</v>
       </c>
       <c r="I3" s="11" t="n">
-        <v>0.03915</v>
+        <v>0</v>
       </c>
       <c r="J3" s="11" t="n">
-        <v>0.03852</v>
+        <v>0</v>
       </c>
       <c r="K3" s="11" t="n">
-        <v>0.03996</v>
+        <v>0</v>
       </c>
       <c r="L3" s="11" t="n">
-        <v>0</v>
+        <v>0.06921</v>
       </c>
       <c r="M3" s="11" t="n">
-        <v>0.01917</v>
+        <v>0</v>
       </c>
       <c r="N3" s="11" t="n">
-        <v>0.05832</v>
+        <v>0.06768</v>
       </c>
       <c r="O3" s="11" t="n">
         <v>0</v>
       </c>
       <c r="P3" s="11" t="n">
-        <v>0</v>
+        <v>0.06921</v>
       </c>
       <c r="Q3" s="11" t="n">
-        <v>0.03834</v>
+        <v>0</v>
       </c>
       <c r="R3" s="11" t="n">
-        <v>0.03852</v>
+        <v>0.07083</v>
       </c>
       <c r="S3" s="11" t="n">
         <v>0</v>
@@ -1743,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="11" t="n">
-        <v>0.13374</v>
+        <v>0.13437</v>
       </c>
     </row>
     <row r="4">
@@ -1766,19 +1764,19 @@
         <v>29</v>
       </c>
       <c r="G4" s="11" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H4" s="11" t="n">
-        <v>0.0208</v>
+        <v>0</v>
       </c>
       <c r="I4" s="11" t="n">
-        <v>0.0204</v>
+        <v>0</v>
       </c>
       <c r="J4" s="11" t="n">
-        <v>0.0612</v>
+        <v>0</v>
       </c>
       <c r="K4" s="11" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L4" s="11" t="n">
         <v>0</v>
@@ -1840,23 +1838,19 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="K5" s="11"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="11" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" s="11"/>
+      <c r="Q5" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="R5" s="11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S5" s="11"/>
       <c r="T5" s="11" t="n">
@@ -1867,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="11" t="n">
-        <v>0.25</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -1960,17 +1954,17 @@
       <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="G7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11"/>
       <c r="J7" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="K7" s="11"/>
       <c r="L7" s="11" t="n">
         <v>0</v>
       </c>
@@ -2022,61 +2016,61 @@
         <v>33</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="11" t="n">
-        <v>0.0171</v>
+        <v>0</v>
       </c>
       <c r="H8" s="11" t="n">
-        <v>0.0173</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11" t="n">
-        <v>0.0175</v>
+        <v>0.0667</v>
       </c>
       <c r="J8" s="11" t="n">
-        <v>0.052</v>
+        <v>0.0638</v>
       </c>
       <c r="K8" s="11" t="n">
-        <v>0.0057</v>
+        <v>0.0444</v>
       </c>
       <c r="L8" s="11" t="n">
-        <v>0.0173</v>
+        <v>0</v>
       </c>
       <c r="M8" s="11" t="n">
-        <v>0.0115</v>
+        <v>0.0222</v>
       </c>
       <c r="N8" s="11" t="n">
-        <v>0.0345</v>
+        <v>0.0667</v>
       </c>
       <c r="O8" s="11" t="n">
-        <v>0.0113</v>
+        <v>0</v>
       </c>
       <c r="P8" s="11" t="n">
-        <v>0.0057</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="11" t="n">
-        <v>0.0113</v>
+        <v>0.0233</v>
       </c>
       <c r="R8" s="11" t="n">
-        <v>0.0283</v>
+        <v>0.0229</v>
       </c>
       <c r="S8" s="11" t="n">
         <v>0</v>
       </c>
       <c r="T8" s="11" t="n">
-        <v>0.0054</v>
+        <v>0.0476</v>
       </c>
       <c r="U8" s="11" t="n">
-        <v>0.0108</v>
+        <v>0</v>
       </c>
       <c r="V8" s="11" t="n">
-        <v>0.0163</v>
+        <v>0.0473</v>
       </c>
       <c r="W8" s="11" t="n">
-        <v>0.1301</v>
+        <v>0.2022</v>
       </c>
     </row>
     <row r="9">
@@ -2093,61 +2087,61 @@
         <v>33</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="11" t="n">
-        <v>0.01539</v>
+        <v>0</v>
       </c>
       <c r="H9" s="11" t="n">
-        <v>0.01557</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11" t="n">
-        <v>0.01575</v>
+        <v>0.06003</v>
       </c>
       <c r="J9" s="11" t="n">
-        <v>0.0468</v>
+        <v>0.05742</v>
       </c>
       <c r="K9" s="11" t="n">
-        <v>0.00513</v>
+        <v>0.03996</v>
       </c>
       <c r="L9" s="11" t="n">
-        <v>0.01557</v>
+        <v>0</v>
       </c>
       <c r="M9" s="11" t="n">
-        <v>0.01035</v>
+        <v>0.01998</v>
       </c>
       <c r="N9" s="11" t="n">
-        <v>0.03105</v>
+        <v>0.06003</v>
       </c>
       <c r="O9" s="11" t="n">
-        <v>0.01017</v>
+        <v>0</v>
       </c>
       <c r="P9" s="11" t="n">
-        <v>0.00513</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="11" t="n">
-        <v>0.01017</v>
+        <v>0.02097</v>
       </c>
       <c r="R9" s="11" t="n">
-        <v>0.02547</v>
+        <v>0.02061</v>
       </c>
       <c r="S9" s="11" t="n">
         <v>0</v>
       </c>
       <c r="T9" s="11" t="n">
-        <v>0.00486</v>
+        <v>0.04284</v>
       </c>
       <c r="U9" s="11" t="n">
-        <v>0.00972</v>
+        <v>0</v>
       </c>
       <c r="V9" s="11" t="n">
-        <v>0.01467</v>
+        <v>0.04257</v>
       </c>
       <c r="W9" s="11" t="n">
-        <v>0.11709</v>
+        <v>0.18198</v>
       </c>
     </row>
     <row r="10">
@@ -2164,61 +2158,61 @@
         <v>33</v>
       </c>
       <c r="E10" s="11" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="11" t="n">
-        <v>0.0054</v>
+        <v>0</v>
       </c>
       <c r="H10" s="11" t="n">
-        <v>0.0054</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11" t="n">
-        <v>0.0053</v>
+        <v>0</v>
       </c>
       <c r="J10" s="11" t="n">
-        <v>0.0162</v>
+        <v>0</v>
       </c>
       <c r="K10" s="11" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M10" s="11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O10" s="11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R10" s="11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S10" s="11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T10" s="11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U10" s="11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V10" s="11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W10" s="11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2325,41 +2319,29 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="12" t="n">
-        <v>0.0769</v>
-      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
       <c r="M2" s="12" t="n">
         <v>0</v>
       </c>
       <c r="N2" s="12" t="n">
-        <v>0.0752</v>
+        <v>0</v>
       </c>
       <c r="O2" s="12" t="n">
         <v>0</v>
       </c>
       <c r="P2" s="12" t="n">
-        <v>0.0769</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="12" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="12" t="n">
-        <v>0.0787</v>
+        <v>0</v>
       </c>
       <c r="S2" s="12" t="n">
         <v>0</v>
@@ -2374,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="12" t="n">
-        <v>0.1493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2396,41 +2378,29 @@
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12" t="n">
-        <v>0.06921</v>
-      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
       <c r="M3" s="12" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="12" t="n">
-        <v>0.06768</v>
+        <v>0</v>
       </c>
       <c r="O3" s="12" t="n">
         <v>0</v>
       </c>
       <c r="P3" s="12" t="n">
-        <v>0.06921</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="12" t="n">
         <v>0</v>
       </c>
       <c r="R3" s="12" t="n">
-        <v>0.07083</v>
+        <v>0</v>
       </c>
       <c r="S3" s="12" t="n">
         <v>0</v>
@@ -2445,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="12" t="n">
-        <v>0.13437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2474,49 +2444,49 @@
         <v>0</v>
       </c>
       <c r="I4" s="12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="12" t="n">
-        <v>0</v>
+        <v>0.3704</v>
       </c>
       <c r="K4" s="12" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="12" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="M4" s="12" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="N4" s="12" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2547,25 +2517,19 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
-      <c r="P5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="12" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
       <c r="S5" s="12"/>
-      <c r="T5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12" t="n">
+        <v>0</v>
+      </c>
       <c r="V5" s="12" t="n">
         <v>0</v>
       </c>
       <c r="W5" s="12" t="n">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2661,9 +2625,7 @@
       <c r="G7" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="n">
         <v>0</v>
@@ -2703,219 +2665,6 @@
         <v>0</v>
       </c>
       <c r="W7" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12" t="n">
-        <v>0.0667</v>
-      </c>
-      <c r="J8" s="12" t="n">
-        <v>0.0638</v>
-      </c>
-      <c r="K8" s="12" t="n">
-        <v>0.0444</v>
-      </c>
-      <c r="L8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12" t="n">
-        <v>0.0222</v>
-      </c>
-      <c r="N8" s="12" t="n">
-        <v>0.0667</v>
-      </c>
-      <c r="O8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="12" t="n">
-        <v>0.0233</v>
-      </c>
-      <c r="R8" s="12" t="n">
-        <v>0.0229</v>
-      </c>
-      <c r="S8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="12" t="n">
-        <v>0.0476</v>
-      </c>
-      <c r="U8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="12" t="n">
-        <v>0.0473</v>
-      </c>
-      <c r="W8" s="12" t="n">
-        <v>0.2022</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12" t="n">
-        <v>0.06003</v>
-      </c>
-      <c r="J9" s="12" t="n">
-        <v>0.05742</v>
-      </c>
-      <c r="K9" s="12" t="n">
-        <v>0.03996</v>
-      </c>
-      <c r="L9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="12" t="n">
-        <v>0.01998</v>
-      </c>
-      <c r="N9" s="12" t="n">
-        <v>0.06003</v>
-      </c>
-      <c r="O9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="12" t="n">
-        <v>0.02097</v>
-      </c>
-      <c r="R9" s="12" t="n">
-        <v>0.02061</v>
-      </c>
-      <c r="S9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="12" t="n">
-        <v>0.04284</v>
-      </c>
-      <c r="U9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="12" t="n">
-        <v>0.04257</v>
-      </c>
-      <c r="W9" s="12" t="n">
-        <v>0.18198</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3018,17 +2767,29 @@
         <v>26</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="G2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="M2" s="13" t="n">
         <v>0</v>
       </c>
@@ -3060,315 +2821,6 @@
         <v>0</v>
       </c>
       <c r="W2" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="13" t="n">
-        <v>0.3704</v>
-      </c>
-      <c r="K4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="13" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="M4" s="13" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="N4" s="13" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O4" s="13" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="P4" s="13" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="Q4" s="13" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="R4" s="13" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="S4" s="13" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="T4" s="13" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="U4" s="13" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="V4" s="13" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="W4" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3626,7 +3078,9 @@
       <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="15" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3669,7 +3123,9 @@
       <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="15" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -4102,55 +3558,55 @@
         <v>27</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>0.0133</v>
+        <v>0.0135</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.0253</v>
+        <v>0.0256</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>0.039</v>
+        <v>0.0395</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>0.012</v>
+        <v>0.0122</v>
       </c>
       <c r="L2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>0.0235</v>
+        <v>0.0238</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>0.0357</v>
+        <v>0.0361</v>
       </c>
       <c r="O2" s="3" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="P2" s="3" t="n">
         <v>0.0116</v>
       </c>
-      <c r="P2" s="3" t="n">
-        <v>0.0115</v>
-      </c>
       <c r="Q2" s="3" t="n">
-        <v>0.011</v>
+        <v>0.0111</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>0.0341</v>
+        <v>0.0345</v>
       </c>
       <c r="S2" s="3" t="n">
-        <v>0.0323</v>
+        <v>0.0326</v>
       </c>
       <c r="T2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="U2" s="3" t="n">
-        <v>0.0106</v>
+        <v>0.0108</v>
       </c>
       <c r="V2" s="3" t="n">
-        <v>0.0426</v>
+        <v>0.043</v>
       </c>
       <c r="W2" s="3" t="n">
-        <v>0.1515</v>
+        <v>0.1533</v>
       </c>
     </row>
     <row r="3">
@@ -4173,55 +3629,55 @@
         <v>28</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>0.01197</v>
+        <v>0.01215</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.02277</v>
+        <v>0.02304</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>0.0351</v>
+        <v>0.03555</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>0.0108</v>
+        <v>0.01098</v>
       </c>
       <c r="L3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>0.02115</v>
+        <v>0.02142</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>0.03213</v>
+        <v>0.03249</v>
       </c>
       <c r="O3" s="3" t="n">
+        <v>0.01062</v>
+      </c>
+      <c r="P3" s="3" t="n">
         <v>0.01044</v>
       </c>
-      <c r="P3" s="3" t="n">
-        <v>0.01035</v>
-      </c>
       <c r="Q3" s="3" t="n">
-        <v>0.0099</v>
+        <v>0.00999</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>0.03069</v>
+        <v>0.03105</v>
       </c>
       <c r="S3" s="3" t="n">
-        <v>0.02907</v>
+        <v>0.02934</v>
       </c>
       <c r="T3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="U3" s="3" t="n">
-        <v>0.00954</v>
+        <v>0.00972</v>
       </c>
       <c r="V3" s="3" t="n">
-        <v>0.03834</v>
+        <v>0.0387</v>
       </c>
       <c r="W3" s="3" t="n">
-        <v>0.13635</v>
+        <v>0.13797</v>
       </c>
     </row>
     <row r="4">
@@ -4512,7 +3968,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -4583,7 +4039,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4654,7 +4110,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -5133,7 +4589,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -5204,7 +4660,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -5275,7 +4731,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -5928,6 +5384,242 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -6178,13 +5870,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="7" t="n">
-        <v>0</v>
+        <v>0.0488</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0</v>
+        <v>0.0719</v>
       </c>
       <c r="K4" s="7" t="n">
         <v>0</v>
@@ -6239,14 +5931,16 @@
       <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="n">
+        <v>0.333333333333333</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="n">
         <v>1</v>
@@ -6257,14 +5951,22 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="Q5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
+      <c r="T5" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
+      <c r="V5" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="W5" s="7" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
@@ -6280,7 +5982,9 @@
       <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7" t="n">
+        <v>0.333333333333333</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -6347,54 +6051,60 @@
         <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>0.333333333333333</v>
+      </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" s="7" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="K7" s="7"/>
       <c r="L7" s="7" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="N7" s="7" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="P7" s="7" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q7" s="7" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="R7" s="7" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="S7" s="7" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="T7" s="7" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="U7" s="7" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="V7" s="7" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W7" s="7" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -6410,51 +6120,203 @@
       <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <v>0.0082</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <v>0.0082</v>
+      </c>
+      <c r="K8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="n">
+        <v>0.0163</v>
+      </c>
+      <c r="P8" s="7" t="n">
+        <v>0.0242</v>
+      </c>
+      <c r="Q8" s="7" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="R8" s="7" t="n">
+        <v>0.0484</v>
+      </c>
+      <c r="S8" s="7" t="n">
+        <v>0.0159</v>
+      </c>
+      <c r="T8" s="7" t="n">
+        <v>0.0157</v>
+      </c>
+      <c r="U8" s="7" t="n">
+        <v>0.0148</v>
+      </c>
+      <c r="V8" s="7" t="n">
+        <v>0.0464</v>
+      </c>
+      <c r="W8" s="7" t="n">
+        <v>0.1043</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="7" t="n">
+      <c r="G9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>0.00738</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="n">
+        <v>0.00738</v>
+      </c>
+      <c r="K9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="n">
+        <v>0.01467</v>
+      </c>
+      <c r="P9" s="7" t="n">
+        <v>0.02178</v>
+      </c>
+      <c r="Q9" s="7" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>0.04356</v>
+      </c>
+      <c r="S9" s="7" t="n">
+        <v>0.01431</v>
+      </c>
+      <c r="T9" s="7" t="n">
+        <v>0.01413</v>
+      </c>
+      <c r="U9" s="7" t="n">
+        <v>0.01332</v>
+      </c>
+      <c r="V9" s="7" t="n">
+        <v>0.04176</v>
+      </c>
+      <c r="W9" s="7" t="n">
+        <v>0.09387</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <v>0.0373</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <v>0.0389</v>
+      </c>
+      <c r="K10" s="7" t="n">
+        <v>0.0126</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6708,13 +6570,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="8" t="n">
-        <v>0.0488</v>
+        <v>0</v>
       </c>
       <c r="I4" s="8" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>0.0719</v>
+        <v>0</v>
       </c>
       <c r="K4" s="8" t="n">
         <v>0</v>
@@ -6753,408 +6615,6 @@
         <v>0</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="8" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W5" s="8" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="8" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="8" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M7" s="8" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="N7" s="8" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="O7" s="8" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="P7" s="8" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Q7" s="8" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="R7" s="8" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="S7" s="8" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="T7" s="8" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="U7" s="8" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="V7" s="8" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="W7" s="8" t="n">
-        <v>0.333333333333333</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8" t="n">
-        <v>0.0082</v>
-      </c>
-      <c r="I8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8" t="n">
-        <v>0.0082</v>
-      </c>
-      <c r="K8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8" t="n">
-        <v>0.0163</v>
-      </c>
-      <c r="P8" s="8" t="n">
-        <v>0.0242</v>
-      </c>
-      <c r="Q8" s="8" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="R8" s="8" t="n">
-        <v>0.0484</v>
-      </c>
-      <c r="S8" s="8" t="n">
-        <v>0.0159</v>
-      </c>
-      <c r="T8" s="8" t="n">
-        <v>0.0157</v>
-      </c>
-      <c r="U8" s="8" t="n">
-        <v>0.0148</v>
-      </c>
-      <c r="V8" s="8" t="n">
-        <v>0.0464</v>
-      </c>
-      <c r="W8" s="8" t="n">
-        <v>0.1043</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8" t="n">
-        <v>0.00738</v>
-      </c>
-      <c r="I9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8" t="n">
-        <v>0.00738</v>
-      </c>
-      <c r="K9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="8" t="n">
-        <v>0.01467</v>
-      </c>
-      <c r="P9" s="8" t="n">
-        <v>0.02178</v>
-      </c>
-      <c r="Q9" s="8" t="n">
-        <v>0.0072</v>
-      </c>
-      <c r="R9" s="8" t="n">
-        <v>0.04356</v>
-      </c>
-      <c r="S9" s="8" t="n">
-        <v>0.01431</v>
-      </c>
-      <c r="T9" s="8" t="n">
-        <v>0.01413</v>
-      </c>
-      <c r="U9" s="8" t="n">
-        <v>0.01332</v>
-      </c>
-      <c r="V9" s="8" t="n">
-        <v>0.04176</v>
-      </c>
-      <c r="W9" s="8" t="n">
-        <v>0.09387</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8" t="n">
-        <v>0.0373</v>
-      </c>
-      <c r="J10" s="8" t="n">
-        <v>0.0389</v>
-      </c>
-      <c r="K10" s="8" t="n">
-        <v>0.0126</v>
-      </c>
-      <c r="L10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7263,16 +6723,16 @@
         <v>27</v>
       </c>
       <c r="G2" s="9" t="n">
-        <v>0</v>
+        <v>0.0769</v>
       </c>
       <c r="H2" s="9" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="9" t="n">
-        <v>0</v>
+        <v>0.0667</v>
       </c>
       <c r="J2" s="9" t="n">
-        <v>0</v>
+        <v>0.146</v>
       </c>
       <c r="K2" s="9" t="n">
         <v>0</v>
@@ -7299,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="9" t="n">
-        <v>0</v>
+        <v>0.0357</v>
       </c>
       <c r="T2" s="9" t="n">
         <v>0</v>
@@ -7308,10 +6768,10 @@
         <v>0</v>
       </c>
       <c r="V2" s="9" t="n">
-        <v>0</v>
+        <v>0.0348</v>
       </c>
       <c r="W2" s="9" t="n">
-        <v>0</v>
+        <v>0.1442</v>
       </c>
     </row>
     <row r="3">
@@ -7334,16 +6794,16 @@
         <v>28</v>
       </c>
       <c r="G3" s="9" t="n">
-        <v>0</v>
+        <v>0.06921</v>
       </c>
       <c r="H3" s="9" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="9" t="n">
-        <v>0</v>
+        <v>0.06003</v>
       </c>
       <c r="J3" s="9" t="n">
-        <v>0</v>
+        <v>0.1314</v>
       </c>
       <c r="K3" s="9" t="n">
         <v>0</v>
@@ -7370,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="9" t="n">
-        <v>0</v>
+        <v>0.03213</v>
       </c>
       <c r="T3" s="9" t="n">
         <v>0</v>
@@ -7379,10 +6839,10 @@
         <v>0</v>
       </c>
       <c r="V3" s="9" t="n">
-        <v>0</v>
+        <v>0.03132</v>
       </c>
       <c r="W3" s="9" t="n">
-        <v>0</v>
+        <v>0.12978</v>
       </c>
     </row>
     <row r="4">
@@ -7453,6 +6913,412 @@
         <v>0</v>
       </c>
       <c r="W4" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9" t="n">
+        <v>0.166666666666667</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="M7" s="9" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="N7" s="9" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="O7" s="9" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="P7" s="9" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="Q7" s="9" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="R7" s="9" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="S7" s="9" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="T7" s="9" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="U7" s="9" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="V7" s="9" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="W7" s="9" t="n">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>0.0476</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9" t="n">
+        <v>0.0826</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>0.0204</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>0.0385</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>0.0172</v>
+      </c>
+      <c r="N8" s="9" t="n">
+        <v>0.0755</v>
+      </c>
+      <c r="O8" s="9" t="n">
+        <v>0.0169</v>
+      </c>
+      <c r="P8" s="9" t="n">
+        <v>0.0536</v>
+      </c>
+      <c r="Q8" s="9" t="n">
+        <v>0.0333</v>
+      </c>
+      <c r="R8" s="9" t="n">
+        <v>0.1029</v>
+      </c>
+      <c r="S8" s="9" t="n">
+        <v>0.0492</v>
+      </c>
+      <c r="T8" s="9" t="n">
+        <v>0.0308</v>
+      </c>
+      <c r="U8" s="9" t="n">
+        <v>0.0267</v>
+      </c>
+      <c r="V8" s="9" t="n">
+        <v>0.1045</v>
+      </c>
+      <c r="W8" s="9" t="n">
+        <v>0.3724</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>0.04284</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>0.07434</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>0.01836</v>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>0.03465</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>0.01548</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>0.06795</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <v>0.01521</v>
+      </c>
+      <c r="P9" s="9" t="n">
+        <v>0.04824</v>
+      </c>
+      <c r="Q9" s="9" t="n">
+        <v>0.02997</v>
+      </c>
+      <c r="R9" s="9" t="n">
+        <v>0.09261</v>
+      </c>
+      <c r="S9" s="9" t="n">
+        <v>0.04428</v>
+      </c>
+      <c r="T9" s="9" t="n">
+        <v>0.02772</v>
+      </c>
+      <c r="U9" s="9" t="n">
+        <v>0.02403</v>
+      </c>
+      <c r="V9" s="9" t="n">
+        <v>0.09405</v>
+      </c>
+      <c r="W9" s="9" t="n">
+        <v>0.33516</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>0.0278</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>0.0235</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>0.0498</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="9" t="n">
         <v>0</v>
       </c>
     </row>

--- a/outputs/SORs/SOR Testing_AMC Aerospace Solutions Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Aerospace Solutions Division.xlsx
@@ -115,10 +115,10 @@
     <t xml:space="preserve">AOP</t>
   </si>
   <si>
-    <t xml:space="preserve">Commit/Forecast</t>
+    <t xml:space="preserve">Correggio Italy</t>
   </si>
   <si>
-    <t xml:space="preserve">Correggio Italy</t>
+    <t xml:space="preserve">Commit/Forecast</t>
   </si>
   <si>
     <t xml:space="preserve">Downers Grove Aerospace Illinois</t>
@@ -744,77 +744,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1059,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="10" t="n">
         <v>0.02</v>
@@ -1254,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1267,9 +1196,7 @@
       <c r="K7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" s="10"/>
       <c r="M7" s="10" t="n">
         <v>0</v>
       </c>
@@ -1318,7 +1245,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1389,7 +1316,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1460,10 +1387,10 @@
         <v>33</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" s="10" t="n">
         <v>0.0054</v>
@@ -1481,40 +1408,40 @@
         <v>0</v>
       </c>
       <c r="L10" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0052</v>
       </c>
       <c r="M10" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O10" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R10" s="10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S10" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T10" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U10" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V10" s="10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W10" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1761,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="11" t="n">
         <v>0</v>
@@ -1952,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="11" t="n">
         <v>0</v>
@@ -1965,9 +1892,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="11"/>
-      <c r="L7" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" s="11"/>
       <c r="M7" s="11" t="n">
         <v>0</v>
       </c>
@@ -2016,7 +1941,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -2087,7 +2012,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -2158,10 +2083,10 @@
         <v>33</v>
       </c>
       <c r="E10" s="11" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" s="11" t="n">
         <v>0</v>
@@ -2179,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="11" t="n">
-        <v>0</v>
+        <v>0.0238</v>
       </c>
       <c r="M10" s="11" t="n">
         <v>0</v>
@@ -2435,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>0</v>
@@ -2453,40 +2378,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="12" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="12" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2620,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>0</v>
@@ -2770,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="13" t="n">
         <v>0</v>
@@ -2926,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="14" t="n">
         <v>0</v>
@@ -3079,7 +3004,7 @@
         <v>33</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3124,7 +3049,7 @@
         <v>33</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3248,7 +3173,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -3319,7 +3244,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -3390,7 +3315,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -3399,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -3697,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>0.0105</v>
@@ -3715,7 +3640,7 @@
         <v>0.0215</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0</v>
+        <v>0.0106</v>
       </c>
       <c r="M4" s="3" t="n">
         <v>0</v>
@@ -3765,7 +3690,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -3830,7 +3755,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -3901,10 +3826,10 @@
         <v>32</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="3" t="n">
         <v>0.3333</v>
@@ -3914,44 +3839,42 @@
       <c r="J7" s="3" t="n">
         <v>0.3333</v>
       </c>
-      <c r="K7" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="K7" s="3"/>
       <c r="L7" s="3" t="n">
         <v>0.25</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="S7" s="3" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="W7" s="3" t="n">
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
     </row>
     <row r="8">
@@ -3968,7 +3891,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -4039,7 +3962,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4110,10 +4033,10 @@
         <v>33</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" s="3" t="n">
         <v>0.0227</v>
@@ -4131,7 +4054,7 @@
         <v>0.014</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>0</v>
+        <v>0.0138</v>
       </c>
       <c r="M10" s="3" t="n">
         <v>0</v>
@@ -4411,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>0</v>
@@ -4589,7 +4512,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4660,7 +4583,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4731,10 +4654,10 @@
         <v>33</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>0</v>
@@ -5032,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0</v>
@@ -5330,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0</v>
@@ -5508,7 +5431,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -5571,7 +5494,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -5864,19 +5787,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="7" t="n">
-        <v>0.0488</v>
+        <v>0.0476</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>0.025</v>
+        <v>0.0244</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0719</v>
+        <v>0.0703</v>
       </c>
       <c r="K4" s="7" t="n">
         <v>0</v>
@@ -5932,7 +5855,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -5983,7 +5906,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -6054,10 +5977,10 @@
         <v>32</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="7" t="n">
         <v>0</v>
@@ -6071,40 +5994,40 @@
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7" t="n">
-        <v>0.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="N7" s="7" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="P7" s="7" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" s="7" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="R7" s="7" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="S7" s="7" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="T7" s="7" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="U7" s="7" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="V7" s="7" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="W7" s="7" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -6121,7 +6044,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -6192,7 +6115,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -6263,10 +6186,10 @@
         <v>33</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" s="7" t="n">
         <v>0</v>
@@ -6284,7 +6207,7 @@
         <v>0.0126</v>
       </c>
       <c r="L10" s="7" t="n">
-        <v>0</v>
+        <v>0.0181</v>
       </c>
       <c r="M10" s="7" t="n">
         <v>0</v>
@@ -6564,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="8" t="n">
         <v>0</v>
@@ -6862,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="9" t="n">
         <v>0</v>
@@ -7059,21 +6982,19 @@
         <v>0.666666666666667</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G7" s="9"/>
       <c r="H7" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9" t="n">
-        <v>0.6667</v>
+        <v>0.5</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9" t="n">
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="M7" s="9" t="n">
         <v>0.666666666666667</v>
@@ -7123,7 +7044,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="9" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -7194,7 +7115,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="9" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -7265,28 +7186,28 @@
         <v>33</v>
       </c>
       <c r="E10" s="9" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" s="9" t="n">
-        <v>0.0278</v>
+        <v>0.0282</v>
       </c>
       <c r="H10" s="9" t="n">
-        <v>0.0235</v>
+        <v>0.0238</v>
       </c>
       <c r="I10" s="9" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="9" t="n">
-        <v>0.0498</v>
+        <v>0.0504</v>
       </c>
       <c r="K10" s="9" t="n">
-        <v>0.0119</v>
+        <v>0.012</v>
       </c>
       <c r="L10" s="9" t="n">
-        <v>0</v>
+        <v>0.0217</v>
       </c>
       <c r="M10" s="9" t="n">
         <v>0</v>

--- a/outputs/SORs/SOR Testing_AMC Aerospace Solutions Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Aerospace Solutions Division.xlsx
@@ -615,9 +615,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -686,9 +684,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -843,7 +839,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>0</v>
+        <v>0.081</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -914,7 +910,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>0</v>
+        <v>0.081</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -985,7 +981,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>0</v>
+        <v>0.081</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -1009,37 +1005,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="10" t="n">
-        <v>0</v>
+        <v>0.0162</v>
       </c>
       <c r="N4" s="10" t="n">
-        <v>0</v>
+        <v>0.0486</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>0</v>
+        <v>0.0162</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>0</v>
+        <v>0.0162</v>
       </c>
       <c r="Q4" s="10" t="n">
-        <v>0</v>
+        <v>0.0162</v>
       </c>
       <c r="R4" s="10" t="n">
-        <v>0</v>
+        <v>0.0486</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>0</v>
+        <v>0.0162</v>
       </c>
       <c r="T4" s="10" t="n">
-        <v>0</v>
+        <v>0.0162</v>
       </c>
       <c r="U4" s="10" t="n">
-        <v>0</v>
+        <v>0.0162</v>
       </c>
       <c r="V4" s="10" t="n">
-        <v>0</v>
+        <v>0.0486</v>
       </c>
       <c r="W4" s="10" t="n">
-        <v>0</v>
+        <v>0.1944</v>
       </c>
     </row>
     <row r="5">
@@ -1245,7 +1241,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>0.0776</v>
+        <v>0.0213</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1316,7 +1312,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>0.0776</v>
+        <v>0.0213</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1387,7 +1383,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>0.0776</v>
+        <v>0.0213</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
@@ -1411,37 +1407,37 @@
         <v>0.0052</v>
       </c>
       <c r="M10" s="10" t="n">
-        <v>0</v>
+        <v>0.00425833333333333</v>
       </c>
       <c r="N10" s="10" t="n">
-        <v>0</v>
+        <v>0.012775</v>
       </c>
       <c r="O10" s="10" t="n">
-        <v>0</v>
+        <v>0.00425833333333333</v>
       </c>
       <c r="P10" s="10" t="n">
-        <v>0</v>
+        <v>0.00425833333333333</v>
       </c>
       <c r="Q10" s="10" t="n">
-        <v>0</v>
+        <v>0.00425833333333333</v>
       </c>
       <c r="R10" s="10" t="n">
-        <v>0</v>
+        <v>0.012775</v>
       </c>
       <c r="S10" s="10" t="n">
-        <v>0</v>
+        <v>0.00425833333333333</v>
       </c>
       <c r="T10" s="10" t="n">
-        <v>0</v>
+        <v>0.00425833333333333</v>
       </c>
       <c r="U10" s="10" t="n">
-        <v>0</v>
+        <v>0.00425833333333333</v>
       </c>
       <c r="V10" s="10" t="n">
-        <v>0</v>
+        <v>0.012775</v>
       </c>
       <c r="W10" s="10" t="n">
-        <v>0</v>
+        <v>0.0511</v>
       </c>
     </row>
   </sheetData>
@@ -1941,7 +1937,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>0.0776</v>
+        <v>0.0238</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -2012,7 +2008,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>0.0776</v>
+        <v>0.0238</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -2083,7 +2079,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="11" t="n">
-        <v>0.0776</v>
+        <v>0.0238</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
@@ -2107,37 +2103,37 @@
         <v>0.0238</v>
       </c>
       <c r="M10" s="11" t="n">
-        <v>0</v>
+        <v>0.00475833333333333</v>
       </c>
       <c r="N10" s="11" t="n">
-        <v>0</v>
+        <v>0.014275</v>
       </c>
       <c r="O10" s="11" t="n">
-        <v>0</v>
+        <v>0.00475833333333333</v>
       </c>
       <c r="P10" s="11" t="n">
-        <v>0</v>
+        <v>0.00475833333333333</v>
       </c>
       <c r="Q10" s="11" t="n">
-        <v>0</v>
+        <v>0.00475833333333333</v>
       </c>
       <c r="R10" s="11" t="n">
-        <v>0</v>
+        <v>0.014275</v>
       </c>
       <c r="S10" s="11" t="n">
-        <v>0</v>
+        <v>0.00475833333333333</v>
       </c>
       <c r="T10" s="11" t="n">
-        <v>0</v>
+        <v>0.00475833333333333</v>
       </c>
       <c r="U10" s="11" t="n">
-        <v>0</v>
+        <v>0.00475833333333333</v>
       </c>
       <c r="V10" s="11" t="n">
-        <v>0</v>
+        <v>0.014275</v>
       </c>
       <c r="W10" s="11" t="n">
-        <v>0</v>
+        <v>0.0571</v>
       </c>
     </row>
   </sheetData>
@@ -2239,7 +2235,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>0</v>
+        <v>0.3846</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2298,7 +2294,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0</v>
+        <v>0.3846</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2357,7 +2353,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0</v>
+        <v>0.3846</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -2381,37 +2377,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="12" t="n">
-        <v>0</v>
+        <v>0.0769166666666667</v>
       </c>
       <c r="N4" s="12" t="n">
-        <v>0</v>
+        <v>0.23075</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0</v>
+        <v>0.0769166666666667</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0</v>
+        <v>0.0769166666666667</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0</v>
+        <v>0.0769166666666667</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0</v>
+        <v>0.23075</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0</v>
+        <v>0.0769166666666667</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0</v>
+        <v>0.0769166666666667</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0</v>
+        <v>0.0769166666666667</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0</v>
+        <v>0.23075</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>0</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="5">
@@ -3003,9 +2999,7 @@
       <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="15" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="15"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3048,9 +3042,7 @@
       <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="15" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="15"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3477,7 +3469,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0</v>
+        <v>0.0634</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3548,7 +3540,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0</v>
+        <v>0.0634</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3619,7 +3611,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0</v>
+        <v>0.0634</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -3643,37 +3635,37 @@
         <v>0.0106</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0</v>
+        <v>0.0126833333333333</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0</v>
+        <v>0.03805</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0</v>
+        <v>0.0126833333333333</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0</v>
+        <v>0.0126833333333333</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0</v>
+        <v>0.0126833333333333</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0</v>
+        <v>0.03805</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0</v>
+        <v>0.0126833333333333</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0</v>
+        <v>0.0126833333333333</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0</v>
+        <v>0.0126833333333333</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0</v>
+        <v>0.03805</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>0</v>
+        <v>0.1522</v>
       </c>
     </row>
     <row r="5">
@@ -4057,37 +4049,37 @@
         <v>0.0138</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>0</v>
+        <v>0.0155166666666667</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>0</v>
+        <v>0.04655</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>0</v>
+        <v>0.0155166666666667</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>0</v>
+        <v>0.0155166666666667</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>0</v>
+        <v>0.0155166666666667</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>0</v>
+        <v>0.04655</v>
       </c>
       <c r="S10" s="3" t="n">
-        <v>0</v>
+        <v>0.0155166666666667</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>0</v>
+        <v>0.0155166666666667</v>
       </c>
       <c r="U10" s="3" t="n">
-        <v>0</v>
+        <v>0.0155166666666667</v>
       </c>
       <c r="V10" s="3" t="n">
-        <v>0</v>
+        <v>0.04655</v>
       </c>
       <c r="W10" s="3" t="n">
-        <v>0</v>
+        <v>0.1862</v>
       </c>
     </row>
   </sheetData>
@@ -4512,7 +4504,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4583,7 +4575,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4654,7 +4646,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>30</v>
@@ -5430,9 +5422,7 @@
       <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="6" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E7" s="6"/>
       <c r="F7" t="s">
         <v>27</v>
       </c>
@@ -5493,9 +5483,7 @@
       <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="6" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E8" s="6"/>
       <c r="F8" t="s">
         <v>28</v>
       </c>
@@ -5642,7 +5630,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0</v>
+        <v>0.0708</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5713,7 +5701,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0</v>
+        <v>0.0708</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5784,7 +5772,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0</v>
+        <v>0.0708</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -5808,37 +5796,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0</v>
+        <v>0.0141583333333333</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0</v>
+        <v>0.042475</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0</v>
+        <v>0.0141583333333333</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0</v>
+        <v>0.0141583333333333</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0</v>
+        <v>0.0141583333333333</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0</v>
+        <v>0.042475</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0</v>
+        <v>0.0141583333333333</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0</v>
+        <v>0.0141583333333333</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0</v>
+        <v>0.0141583333333333</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0</v>
+        <v>0.042475</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0</v>
+        <v>0.1699</v>
       </c>
     </row>
     <row r="5">
@@ -6044,7 +6032,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0.0776</v>
+        <v>0.0698</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -6115,7 +6103,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0.0776</v>
+        <v>0.0698</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -6186,7 +6174,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>0.0776</v>
+        <v>0.0698</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
@@ -6210,37 +6198,37 @@
         <v>0.0181</v>
       </c>
       <c r="M10" s="7" t="n">
-        <v>0</v>
+        <v>0.0139583333333333</v>
       </c>
       <c r="N10" s="7" t="n">
-        <v>0</v>
+        <v>0.041875</v>
       </c>
       <c r="O10" s="7" t="n">
-        <v>0</v>
+        <v>0.0139583333333333</v>
       </c>
       <c r="P10" s="7" t="n">
-        <v>0</v>
+        <v>0.0139583333333333</v>
       </c>
       <c r="Q10" s="7" t="n">
-        <v>0</v>
+        <v>0.0139583333333333</v>
       </c>
       <c r="R10" s="7" t="n">
-        <v>0</v>
+        <v>0.041875</v>
       </c>
       <c r="S10" s="7" t="n">
-        <v>0</v>
+        <v>0.0139583333333333</v>
       </c>
       <c r="T10" s="7" t="n">
-        <v>0</v>
+        <v>0.0139583333333333</v>
       </c>
       <c r="U10" s="7" t="n">
-        <v>0</v>
+        <v>0.0139583333333333</v>
       </c>
       <c r="V10" s="7" t="n">
-        <v>0</v>
+        <v>0.041875</v>
       </c>
       <c r="W10" s="7" t="n">
-        <v>0</v>
+        <v>0.1675</v>
       </c>
     </row>
   </sheetData>
@@ -7044,7 +7032,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="9" t="n">
-        <v>0.0776</v>
+        <v>0.0847</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -7115,7 +7103,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="9" t="n">
-        <v>0.0776</v>
+        <v>0.0847</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -7186,7 +7174,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="9" t="n">
-        <v>0.0776</v>
+        <v>0.0847</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
@@ -7210,37 +7198,37 @@
         <v>0.0217</v>
       </c>
       <c r="M10" s="9" t="n">
-        <v>0</v>
+        <v>0.0169416666666667</v>
       </c>
       <c r="N10" s="9" t="n">
-        <v>0</v>
+        <v>0.050825</v>
       </c>
       <c r="O10" s="9" t="n">
-        <v>0</v>
+        <v>0.0169416666666667</v>
       </c>
       <c r="P10" s="9" t="n">
-        <v>0</v>
+        <v>0.0169416666666667</v>
       </c>
       <c r="Q10" s="9" t="n">
-        <v>0</v>
+        <v>0.0169416666666667</v>
       </c>
       <c r="R10" s="9" t="n">
-        <v>0</v>
+        <v>0.050825</v>
       </c>
       <c r="S10" s="9" t="n">
-        <v>0</v>
+        <v>0.0169416666666667</v>
       </c>
       <c r="T10" s="9" t="n">
-        <v>0</v>
+        <v>0.0169416666666667</v>
       </c>
       <c r="U10" s="9" t="n">
-        <v>0</v>
+        <v>0.0169416666666667</v>
       </c>
       <c r="V10" s="9" t="n">
-        <v>0</v>
+        <v>0.050825</v>
       </c>
       <c r="W10" s="9" t="n">
-        <v>0</v>
+        <v>0.2033</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_AMC Aerospace Solutions Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Aerospace Solutions Division.xlsx
@@ -19,14 +19,15 @@
     <sheet name="Twinsburg Ohio" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Downers Grove Illinois" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="Betzdorf Germany" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="La Guerche l'Aubois France" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Apodaca Pmc Plant 1 Mexico" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Hyderabad India" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="La Guerche l'Aubois France" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Apodaca Pmc Plant 1 Mexico" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -160,6 +161,9 @@
     <t xml:space="preserve">Betzdorf Germany</t>
   </si>
   <si>
+    <t xml:space="preserve">Hyderabad India</t>
+  </si>
+  <si>
     <t xml:space="preserve">La Guerche l'Aubois France</t>
   </si>
   <si>
@@ -170,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="15">
+  <numFmts count="16">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -186,6 +190,7 @@
     <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
     <numFmt numFmtId="179" formatCode="0.0%"/>
+    <numFmt numFmtId="180" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -221,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -238,6 +243,7 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,7 +845,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>0.081</v>
+        <v>0.0803</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -910,7 +916,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>0.081</v>
+        <v>0.0803</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -981,7 +987,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>0.081</v>
+        <v>0.0803</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -1005,37 +1011,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="10" t="n">
-        <v>0.0162</v>
+        <v>0</v>
       </c>
       <c r="N4" s="10" t="n">
-        <v>0.0486</v>
+        <v>0.0197</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>0.0162</v>
+        <v>0.0133833333333333</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>0.0162</v>
+        <v>0.0133833333333333</v>
       </c>
       <c r="Q4" s="10" t="n">
-        <v>0.0162</v>
+        <v>0.0133833333333333</v>
       </c>
       <c r="R4" s="10" t="n">
-        <v>0.0486</v>
+        <v>0.04015</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>0.0162</v>
+        <v>0.0133833333333333</v>
       </c>
       <c r="T4" s="10" t="n">
-        <v>0.0162</v>
+        <v>0.0133833333333333</v>
       </c>
       <c r="U4" s="10" t="n">
-        <v>0.0162</v>
+        <v>0.0133833333333333</v>
       </c>
       <c r="V4" s="10" t="n">
-        <v>0.0486</v>
+        <v>0.04015</v>
       </c>
       <c r="W4" s="10" t="n">
-        <v>0.1944</v>
+        <v>0.1606</v>
       </c>
     </row>
     <row r="5">
@@ -1193,9 +1199,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="10"/>
-      <c r="M7" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" s="10"/>
       <c r="N7" s="10" t="n">
         <v>0</v>
       </c>
@@ -1241,7 +1245,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>0.0213</v>
+        <v>0.037</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1312,7 +1316,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>0.0213</v>
+        <v>0.037</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1383,7 +1387,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>0.0213</v>
+        <v>0.037</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
@@ -1407,37 +1411,37 @@
         <v>0.0052</v>
       </c>
       <c r="M10" s="10" t="n">
-        <v>0.00425833333333333</v>
+        <v>0.0152</v>
       </c>
       <c r="N10" s="10" t="n">
-        <v>0.012775</v>
+        <v>0.0207</v>
       </c>
       <c r="O10" s="10" t="n">
-        <v>0.00425833333333333</v>
+        <v>0.00616666666666667</v>
       </c>
       <c r="P10" s="10" t="n">
-        <v>0.00425833333333333</v>
+        <v>0.00616666666666667</v>
       </c>
       <c r="Q10" s="10" t="n">
-        <v>0.00425833333333333</v>
+        <v>0.00616666666666667</v>
       </c>
       <c r="R10" s="10" t="n">
-        <v>0.012775</v>
+        <v>0.0185</v>
       </c>
       <c r="S10" s="10" t="n">
-        <v>0.00425833333333333</v>
+        <v>0.00616666666666667</v>
       </c>
       <c r="T10" s="10" t="n">
-        <v>0.00425833333333333</v>
+        <v>0.00616666666666667</v>
       </c>
       <c r="U10" s="10" t="n">
-        <v>0.00425833333333333</v>
+        <v>0.00616666666666667</v>
       </c>
       <c r="V10" s="10" t="n">
-        <v>0.012775</v>
+        <v>0.0185</v>
       </c>
       <c r="W10" s="10" t="n">
-        <v>0.0511</v>
+        <v>0.074</v>
       </c>
     </row>
   </sheetData>
@@ -1539,7 +1543,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="11" t="n">
-        <v>0</v>
+        <v>0.0581</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1610,7 +1614,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="11" t="n">
-        <v>0</v>
+        <v>0.0581</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1681,7 +1685,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>0</v>
+        <v>0.0581</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -1705,37 +1709,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="11" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="N4" s="11" t="n">
-        <v>0</v>
+        <v>0.0565</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>0</v>
+        <v>0.00968333333333333</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>0</v>
+        <v>0.00968333333333333</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>0</v>
+        <v>0.00968333333333333</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>0</v>
+        <v>0.02905</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>0</v>
+        <v>0.00968333333333333</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>0</v>
+        <v>0.00968333333333333</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>0</v>
+        <v>0.00968333333333333</v>
       </c>
       <c r="V4" s="11" t="n">
-        <v>0</v>
+        <v>0.02905</v>
       </c>
       <c r="W4" s="11" t="n">
-        <v>0</v>
+        <v>0.1162</v>
       </c>
     </row>
     <row r="5">
@@ -1889,12 +1893,8 @@
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
       <c r="O7" s="11" t="n">
         <v>0</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>0.0238</v>
+        <v>0.024</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -2008,7 +2008,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>0.0238</v>
+        <v>0.024</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -2079,7 +2079,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="11" t="n">
-        <v>0.0238</v>
+        <v>0.024</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
@@ -2103,37 +2103,37 @@
         <v>0.0238</v>
       </c>
       <c r="M10" s="11" t="n">
-        <v>0.00475833333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="11" t="n">
-        <v>0.014275</v>
+        <v>0.0238</v>
       </c>
       <c r="O10" s="11" t="n">
-        <v>0.00475833333333333</v>
+        <v>0.004</v>
       </c>
       <c r="P10" s="11" t="n">
-        <v>0.00475833333333333</v>
+        <v>0.004</v>
       </c>
       <c r="Q10" s="11" t="n">
-        <v>0.00475833333333333</v>
+        <v>0.004</v>
       </c>
       <c r="R10" s="11" t="n">
-        <v>0.014275</v>
+        <v>0.012</v>
       </c>
       <c r="S10" s="11" t="n">
-        <v>0.00475833333333333</v>
+        <v>0.004</v>
       </c>
       <c r="T10" s="11" t="n">
-        <v>0.00475833333333333</v>
+        <v>0.004</v>
       </c>
       <c r="U10" s="11" t="n">
-        <v>0.00475833333333333</v>
+        <v>0.004</v>
       </c>
       <c r="V10" s="11" t="n">
-        <v>0.014275</v>
+        <v>0.012</v>
       </c>
       <c r="W10" s="11" t="n">
-        <v>0.0571</v>
+        <v>0.048</v>
       </c>
     </row>
   </sheetData>
@@ -2235,7 +2235,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>0.3846</v>
+        <v>0.3704</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2294,7 +2294,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0.3846</v>
+        <v>0.3704</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2353,7 +2353,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0.3846</v>
+        <v>0.3704</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -2377,37 +2377,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="12" t="n">
-        <v>0.0769166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="12" t="n">
-        <v>0.23075</v>
+        <v>0</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0.0769166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0.0769166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0.0769166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0.23075</v>
+        <v>0.1852</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0.0769166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0.0769166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0.0769166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0.23075</v>
+        <v>0.1852</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>0.923</v>
+        <v>0.7408</v>
       </c>
     </row>
     <row r="5">
@@ -2555,9 +2555,7 @@
       <c r="L7" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" s="12"/>
       <c r="N7" s="12" t="n">
         <v>0</v>
       </c>
@@ -2997,35 +2995,191 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="16"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="15" t="n">
+      <c r="G2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15" t="n">
+      <c r="I2" s="16"/>
+      <c r="J2" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15" t="n">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3037,38 +3191,38 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="16"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="15" t="n">
+      <c r="G3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="16" t="n">
         <v>0.9</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15" t="n">
+      <c r="I3" s="16"/>
+      <c r="J3" s="16" t="n">
         <v>0.9</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15" t="n">
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -3469,7 +3623,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.0634</v>
+        <v>0.063</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3540,7 +3694,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.0634</v>
+        <v>0.063</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3611,7 +3765,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.0634</v>
+        <v>0.063</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -3635,37 +3789,37 @@
         <v>0.0106</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0.0126833333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0.03805</v>
+        <v>0.0316</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.0126833333333333</v>
+        <v>0.0105</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.0126833333333333</v>
+        <v>0.0105</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.0126833333333333</v>
+        <v>0.0105</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.03805</v>
+        <v>0.0315</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.0126833333333333</v>
+        <v>0.0105</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.0126833333333333</v>
+        <v>0.0105</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.0126833333333333</v>
+        <v>0.0105</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.03805</v>
+        <v>0.0315</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>0.1522</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="5">
@@ -3682,7 +3836,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.285714285714286</v>
+        <v>0.3</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -3747,7 +3901,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0.285714285714286</v>
+        <v>0.3</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -3818,7 +3972,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.285714285714286</v>
+        <v>0.3</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
@@ -3836,37 +3990,37 @@
         <v>0.25</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>0.285714285714286</v>
+        <v>0.3333</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>0.285714285714286</v>
+        <v>0.2857</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>0.285714285714286</v>
+        <v>0.3</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>0.285714285714286</v>
+        <v>0.3</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>0.285714285714286</v>
+        <v>0.3</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>0.285714285714286</v>
+        <v>0.3</v>
       </c>
       <c r="S7" s="3" t="n">
-        <v>0.285714285714286</v>
+        <v>0.3</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>0.285714285714286</v>
+        <v>0.3</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>0.285714285714286</v>
+        <v>0.3</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>0.285714285714286</v>
+        <v>0.3</v>
       </c>
       <c r="W7" s="3" t="n">
-        <v>0.285714285714286</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
@@ -3883,7 +4037,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.0776</v>
+        <v>0.1005</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3954,7 +4108,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.0776</v>
+        <v>0.1005</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4025,7 +4179,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.0776</v>
+        <v>0.1005</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
@@ -4049,37 +4203,37 @@
         <v>0.0138</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>0.0155166666666667</v>
+        <v>0.0229</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>0.04655</v>
+        <v>0.0507</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>0.0155166666666667</v>
+        <v>0.01675</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>0.0155166666666667</v>
+        <v>0.01675</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>0.0155166666666667</v>
+        <v>0.01675</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>0.04655</v>
+        <v>0.05025</v>
       </c>
       <c r="S10" s="3" t="n">
-        <v>0.0155166666666667</v>
+        <v>0.01675</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>0.0155166666666667</v>
+        <v>0.01675</v>
       </c>
       <c r="U10" s="3" t="n">
-        <v>0.0155166666666667</v>
+        <v>0.01675</v>
       </c>
       <c r="V10" s="3" t="n">
-        <v>0.04655</v>
+        <v>0.05025</v>
       </c>
       <c r="W10" s="3" t="n">
-        <v>0.1862</v>
+        <v>0.201</v>
       </c>
     </row>
   </sheetData>
@@ -4801,9 +4955,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="5"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -4872,9 +5024,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -4927,77 +5077,6 @@
         <v>0</v>
       </c>
       <c r="W3" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5630,7 +5709,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0.0708</v>
+        <v>0.0718</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5701,7 +5780,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.0708</v>
+        <v>0.0718</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5772,7 +5851,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.0708</v>
+        <v>0.0718</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -5781,13 +5860,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="7" t="n">
-        <v>0.0476</v>
+        <v>0.0488</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>0.0244</v>
+        <v>0.025</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0703</v>
+        <v>0.0719</v>
       </c>
       <c r="K4" s="7" t="n">
         <v>0</v>
@@ -5796,37 +5875,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0.0141583333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0.042475</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.0141583333333333</v>
+        <v>0.0119666666666667</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.0141583333333333</v>
+        <v>0.0119666666666667</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.0141583333333333</v>
+        <v>0.0119666666666667</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.042475</v>
+        <v>0.0359</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.0141583333333333</v>
+        <v>0.0119666666666667</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.0141583333333333</v>
+        <v>0.0119666666666667</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.0141583333333333</v>
+        <v>0.0119666666666667</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.042475</v>
+        <v>0.0359</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0.1699</v>
+        <v>0.1436</v>
       </c>
     </row>
     <row r="5">
@@ -5843,7 +5922,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -5894,7 +5973,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -5965,7 +6044,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
@@ -5981,41 +6060,39 @@
         <v>0.3333</v>
       </c>
       <c r="K7" s="7"/>
-      <c r="L7" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="7"/>
       <c r="M7" s="7" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="P7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="T7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="U7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="V7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="W7" s="7" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8">
@@ -6032,7 +6109,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0.0698</v>
+        <v>0.0882</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -6103,7 +6180,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0.0698</v>
+        <v>0.0882</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -6174,7 +6251,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>0.0698</v>
+        <v>0.0882</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
@@ -6198,37 +6275,37 @@
         <v>0.0181</v>
       </c>
       <c r="M10" s="7" t="n">
-        <v>0.0139583333333333</v>
+        <v>0.0182</v>
       </c>
       <c r="N10" s="7" t="n">
-        <v>0.041875</v>
+        <v>0.049</v>
       </c>
       <c r="O10" s="7" t="n">
-        <v>0.0139583333333333</v>
+        <v>0.0147</v>
       </c>
       <c r="P10" s="7" t="n">
-        <v>0.0139583333333333</v>
+        <v>0.0147</v>
       </c>
       <c r="Q10" s="7" t="n">
-        <v>0.0139583333333333</v>
+        <v>0.0147</v>
       </c>
       <c r="R10" s="7" t="n">
-        <v>0.041875</v>
+        <v>0.0441</v>
       </c>
       <c r="S10" s="7" t="n">
-        <v>0.0139583333333333</v>
+        <v>0.0147</v>
       </c>
       <c r="T10" s="7" t="n">
-        <v>0.0139583333333333</v>
+        <v>0.0147</v>
       </c>
       <c r="U10" s="7" t="n">
-        <v>0.0139583333333333</v>
+        <v>0.0147</v>
       </c>
       <c r="V10" s="7" t="n">
-        <v>0.041875</v>
+        <v>0.0441</v>
       </c>
       <c r="W10" s="7" t="n">
-        <v>0.1675</v>
+        <v>0.1764</v>
       </c>
     </row>
   </sheetData>
@@ -6628,7 +6705,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>0</v>
+        <v>0.0339</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6699,7 +6776,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0</v>
+        <v>0.0339</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6770,7 +6847,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0</v>
+        <v>0.0339</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -6794,37 +6871,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="9" t="n">
-        <v>0</v>
+        <v>0.0333</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>0</v>
+        <v>0.0333</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0</v>
+        <v>0.00565</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0</v>
+        <v>0.00565</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0</v>
+        <v>0.00565</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0</v>
+        <v>0.01695</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0</v>
+        <v>0.00565</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0</v>
+        <v>0.00565</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0</v>
+        <v>0.00565</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0</v>
+        <v>0.01695</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>0</v>
+        <v>0.0678</v>
       </c>
     </row>
     <row r="5">
@@ -6841,7 +6918,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0.666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -6896,7 +6973,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>0.666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -6967,55 +7044,57 @@
         <v>32</v>
       </c>
       <c r="E7" s="9" t="n">
-        <v>0.666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="H7" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9" t="n">
-        <v>0.5</v>
+        <v>0.6667</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9" t="n">
         <v>1</v>
       </c>
       <c r="M7" s="9" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="N7" s="9" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="9" t="n">
-        <v>0.666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="P7" s="9" t="n">
-        <v>0.666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="Q7" s="9" t="n">
-        <v>0.666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="R7" s="9" t="n">
-        <v>0.666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="S7" s="9" t="n">
-        <v>0.666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="T7" s="9" t="n">
-        <v>0.666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="U7" s="9" t="n">
-        <v>0.666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="V7" s="9" t="n">
-        <v>0.666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="W7" s="9" t="n">
-        <v>0.666666666666667</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
@@ -7032,7 +7111,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="9" t="n">
-        <v>0.0847</v>
+        <v>0.0932</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -7103,7 +7182,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="9" t="n">
-        <v>0.0847</v>
+        <v>0.0932</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -7174,7 +7253,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="9" t="n">
-        <v>0.0847</v>
+        <v>0.0932</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
@@ -7198,37 +7277,37 @@
         <v>0.0217</v>
       </c>
       <c r="M10" s="9" t="n">
-        <v>0.0169416666666667</v>
+        <v>0.0098</v>
       </c>
       <c r="N10" s="9" t="n">
-        <v>0.050825</v>
+        <v>0.0433</v>
       </c>
       <c r="O10" s="9" t="n">
-        <v>0.0169416666666667</v>
+        <v>0.0155333333333333</v>
       </c>
       <c r="P10" s="9" t="n">
-        <v>0.0169416666666667</v>
+        <v>0.0155333333333333</v>
       </c>
       <c r="Q10" s="9" t="n">
-        <v>0.0169416666666667</v>
+        <v>0.0155333333333333</v>
       </c>
       <c r="R10" s="9" t="n">
-        <v>0.050825</v>
+        <v>0.0466</v>
       </c>
       <c r="S10" s="9" t="n">
-        <v>0.0169416666666667</v>
+        <v>0.0155333333333333</v>
       </c>
       <c r="T10" s="9" t="n">
-        <v>0.0169416666666667</v>
+        <v>0.0155333333333333</v>
       </c>
       <c r="U10" s="9" t="n">
-        <v>0.0169416666666667</v>
+        <v>0.0155333333333333</v>
       </c>
       <c r="V10" s="9" t="n">
-        <v>0.050825</v>
+        <v>0.0466</v>
       </c>
       <c r="W10" s="9" t="n">
-        <v>0.2033</v>
+        <v>0.1864</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_AMC Aerospace Solutions Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Aerospace Solutions Division.xlsx
@@ -845,7 +845,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>0.0803</v>
+        <v>0.078</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -916,7 +916,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>0.0803</v>
+        <v>0.078</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -987,25 +987,25 @@
         <v>26</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>0.0803</v>
+        <v>0.078</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="10" t="n">
+        <v>0.0196</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <v>0.0204</v>
+      </c>
+      <c r="I4" s="10" t="n">
         <v>0.02</v>
       </c>
-      <c r="H4" s="10" t="n">
-        <v>0.0208</v>
-      </c>
-      <c r="I4" s="10" t="n">
-        <v>0.0204</v>
-      </c>
       <c r="J4" s="10" t="n">
-        <v>0.0612</v>
+        <v>0.06</v>
       </c>
       <c r="K4" s="10" t="n">
-        <v>0.02</v>
+        <v>0.0196</v>
       </c>
       <c r="L4" s="10" t="n">
         <v>0</v>
@@ -1014,34 +1014,34 @@
         <v>0</v>
       </c>
       <c r="N4" s="10" t="n">
-        <v>0.0197</v>
+        <v>0.0193</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>0.0133833333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>0.0133833333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="10" t="n">
-        <v>0.0133833333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="10" t="n">
-        <v>0.04015</v>
+        <v>0</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>0.0133833333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="10" t="n">
-        <v>0.0133833333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="10" t="n">
-        <v>0.0133833333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="10" t="n">
-        <v>0.04015</v>
+        <v>0</v>
       </c>
       <c r="W4" s="10" t="n">
-        <v>0.1606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1203,9 +1203,7 @@
       <c r="N7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="O7" s="10"/>
       <c r="P7" s="10" t="n">
         <v>0</v>
       </c>
@@ -1245,7 +1243,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>0.037</v>
+        <v>0.0525</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1316,7 +1314,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>0.037</v>
+        <v>0.0525</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1387,22 +1385,22 @@
         <v>33</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>0.037</v>
+        <v>0.0525</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="10" t="n">
+        <v>0.0055</v>
+      </c>
+      <c r="H10" s="10" t="n">
+        <v>0.0055</v>
+      </c>
+      <c r="I10" s="10" t="n">
         <v>0.0054</v>
       </c>
-      <c r="H10" s="10" t="n">
-        <v>0.0054</v>
-      </c>
-      <c r="I10" s="10" t="n">
-        <v>0.0053</v>
-      </c>
       <c r="J10" s="10" t="n">
-        <v>0.0162</v>
+        <v>0.0163</v>
       </c>
       <c r="K10" s="10" t="n">
         <v>0</v>
@@ -1411,37 +1409,37 @@
         <v>0.0052</v>
       </c>
       <c r="M10" s="10" t="n">
-        <v>0.0152</v>
+        <v>0.0149</v>
       </c>
       <c r="N10" s="10" t="n">
-        <v>0.0207</v>
+        <v>0.0206</v>
       </c>
       <c r="O10" s="10" t="n">
-        <v>0.00616666666666667</v>
+        <v>0.0151</v>
       </c>
       <c r="P10" s="10" t="n">
-        <v>0.00616666666666667</v>
+        <v>0.0075</v>
       </c>
       <c r="Q10" s="10" t="n">
-        <v>0.00616666666666667</v>
+        <v>0.0075</v>
       </c>
       <c r="R10" s="10" t="n">
-        <v>0.0185</v>
+        <v>0.0225</v>
       </c>
       <c r="S10" s="10" t="n">
-        <v>0.00616666666666667</v>
+        <v>0.0075</v>
       </c>
       <c r="T10" s="10" t="n">
-        <v>0.00616666666666667</v>
+        <v>0.0075</v>
       </c>
       <c r="U10" s="10" t="n">
-        <v>0.00616666666666667</v>
+        <v>0.0075</v>
       </c>
       <c r="V10" s="10" t="n">
-        <v>0.0185</v>
+        <v>0.0225</v>
       </c>
       <c r="W10" s="10" t="n">
-        <v>0.074</v>
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -1543,7 +1541,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="11" t="n">
-        <v>0.0581</v>
+        <v>0.0585</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1614,7 +1612,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="11" t="n">
-        <v>0.0581</v>
+        <v>0.0585</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1685,7 +1683,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>0.0581</v>
+        <v>0.0585</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -1715,31 +1713,31 @@
         <v>0.0565</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>0.00968333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>0.00968333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>0.00968333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>0.02905</v>
+        <v>0</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>0.00968333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>0.00968333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>0.00968333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="11" t="n">
-        <v>0.02905</v>
+        <v>0</v>
       </c>
       <c r="W4" s="11" t="n">
-        <v>0.1162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1895,9 +1893,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
-      <c r="O7" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="O7" s="11"/>
       <c r="P7" s="11" t="n">
         <v>0</v>
       </c>
@@ -1937,7 +1933,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>0.024</v>
+        <v>0.0969</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -2008,7 +2004,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>0.024</v>
+        <v>0.0969</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -2079,7 +2075,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="11" t="n">
-        <v>0.024</v>
+        <v>0.0969</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
@@ -2109,31 +2105,31 @@
         <v>0.0238</v>
       </c>
       <c r="O10" s="11" t="n">
-        <v>0.004</v>
+        <v>0.0769</v>
       </c>
       <c r="P10" s="11" t="n">
-        <v>0.004</v>
+        <v>0.0138416666666667</v>
       </c>
       <c r="Q10" s="11" t="n">
-        <v>0.004</v>
+        <v>0.0138416666666667</v>
       </c>
       <c r="R10" s="11" t="n">
-        <v>0.012</v>
+        <v>0.041525</v>
       </c>
       <c r="S10" s="11" t="n">
-        <v>0.004</v>
+        <v>0.0138416666666667</v>
       </c>
       <c r="T10" s="11" t="n">
-        <v>0.004</v>
+        <v>0.0138416666666667</v>
       </c>
       <c r="U10" s="11" t="n">
-        <v>0.004</v>
+        <v>0.0138416666666667</v>
       </c>
       <c r="V10" s="11" t="n">
-        <v>0.012</v>
+        <v>0.041525</v>
       </c>
       <c r="W10" s="11" t="n">
-        <v>0.048</v>
+        <v>0.1661</v>
       </c>
     </row>
   </sheetData>
@@ -2235,7 +2231,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>0.3704</v>
+        <v>0.3448</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2294,7 +2290,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0.3704</v>
+        <v>0.3448</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2353,7 +2349,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0.3704</v>
+        <v>0.3448</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -2383,31 +2379,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0.1852</v>
+        <v>0</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0.1852</v>
+        <v>0</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>0.7408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2559,9 +2555,7 @@
       <c r="N7" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="O7" s="12"/>
       <c r="P7" s="12" t="n">
         <v>0</v>
       </c>
@@ -3623,7 +3617,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.063</v>
+        <v>0.0732</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3694,7 +3688,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.063</v>
+        <v>0.0732</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3765,7 +3759,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.063</v>
+        <v>0.0732</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -3795,31 +3789,31 @@
         <v>0.0316</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.0105</v>
+        <v>0.0102</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.0105</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.0105</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.0315</v>
+        <v>0</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.0105</v>
+        <v>0</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.0105</v>
+        <v>0</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.0105</v>
+        <v>0</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.0315</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>0.126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3836,7 +3830,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.3</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -3901,7 +3895,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0.3</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -3972,7 +3966,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.3</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
@@ -3996,31 +3990,31 @@
         <v>0.2857</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>0.3</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>0.3</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>0.3</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="S7" s="3" t="n">
-        <v>0.3</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>0.3</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>0.3</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>0.3</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="W7" s="3" t="n">
-        <v>0.3</v>
+        <v>0.272727272727273</v>
       </c>
     </row>
     <row r="8">
@@ -4037,7 +4031,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.1005</v>
+        <v>0.1248</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -4108,7 +4102,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.1005</v>
+        <v>0.1248</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4179,22 +4173,22 @@
         <v>33</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.1005</v>
+        <v>0.1248</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>0.0227</v>
+        <v>0.0228</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>0.0091</v>
+        <v>0.0092</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.0179</v>
+        <v>0.018</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>0.0498</v>
+        <v>0.0501</v>
       </c>
       <c r="K10" s="3" t="n">
         <v>0.014</v>
@@ -4203,37 +4197,37 @@
         <v>0.0138</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>0.0229</v>
+        <v>0.0231</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>0.0507</v>
+        <v>0.051</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>0.01675</v>
+        <v>0.0239</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>0.01675</v>
+        <v>0.017825</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>0.01675</v>
+        <v>0.017825</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>0.05025</v>
+        <v>0.053475</v>
       </c>
       <c r="S10" s="3" t="n">
-        <v>0.01675</v>
+        <v>0.017825</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>0.01675</v>
+        <v>0.017825</v>
       </c>
       <c r="U10" s="3" t="n">
-        <v>0.01675</v>
+        <v>0.017825</v>
       </c>
       <c r="V10" s="3" t="n">
-        <v>0.05025</v>
+        <v>0.053475</v>
       </c>
       <c r="W10" s="3" t="n">
-        <v>0.201</v>
+        <v>0.2139</v>
       </c>
     </row>
   </sheetData>
@@ -5709,7 +5703,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0.0718</v>
+        <v>0.0713</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5780,7 +5774,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.0718</v>
+        <v>0.0713</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5851,7 +5845,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.0718</v>
+        <v>0.0713</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -5881,31 +5875,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.0119666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.0119666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.0119666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.0359</v>
+        <v>0</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.0119666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.0119666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.0119666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.0359</v>
+        <v>0</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0.1436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6067,9 +6061,7 @@
       <c r="N7" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="7" t="n">
-        <v>0.25</v>
-      </c>
+      <c r="O7" s="7"/>
       <c r="P7" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -6109,7 +6101,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0.0882</v>
+        <v>0.1003</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -6180,7 +6172,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0.0882</v>
+        <v>0.1003</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -6251,7 +6243,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>0.0882</v>
+        <v>0.1003</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
@@ -6263,10 +6255,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="7" t="n">
-        <v>0.0373</v>
+        <v>0.0375</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.0389</v>
+        <v>0.039</v>
       </c>
       <c r="K10" s="7" t="n">
         <v>0.0126</v>
@@ -6281,31 +6273,31 @@
         <v>0.049</v>
       </c>
       <c r="O10" s="7" t="n">
-        <v>0.0147</v>
+        <v>0.012</v>
       </c>
       <c r="P10" s="7" t="n">
-        <v>0.0147</v>
+        <v>0.014325</v>
       </c>
       <c r="Q10" s="7" t="n">
-        <v>0.0147</v>
+        <v>0.014325</v>
       </c>
       <c r="R10" s="7" t="n">
-        <v>0.0441</v>
+        <v>0.042975</v>
       </c>
       <c r="S10" s="7" t="n">
-        <v>0.0147</v>
+        <v>0.014325</v>
       </c>
       <c r="T10" s="7" t="n">
-        <v>0.0147</v>
+        <v>0.014325</v>
       </c>
       <c r="U10" s="7" t="n">
-        <v>0.0147</v>
+        <v>0.014325</v>
       </c>
       <c r="V10" s="7" t="n">
-        <v>0.0441</v>
+        <v>0.042975</v>
       </c>
       <c r="W10" s="7" t="n">
-        <v>0.1764</v>
+        <v>0.1719</v>
       </c>
     </row>
   </sheetData>
@@ -6705,7 +6697,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>0.0339</v>
+        <v>0.0323</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6776,7 +6768,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0.0339</v>
+        <v>0.0323</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6847,7 +6839,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0.0339</v>
+        <v>0.0323</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -6871,37 +6863,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="9" t="n">
-        <v>0.0333</v>
+        <v>0.0323</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>0.0333</v>
+        <v>0.0323</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0.00565</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0.00565</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0.00565</v>
+        <v>0</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0.01695</v>
+        <v>0</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0.00565</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0.00565</v>
+        <v>0</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0.00565</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0.01695</v>
+        <v>0</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>0.0678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6918,7 +6910,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0.6</v>
+        <v>0.375</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -6973,7 +6965,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>0.6</v>
+        <v>0.375</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -7044,7 +7036,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="9" t="n">
-        <v>0.6</v>
+        <v>0.375</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
@@ -7070,31 +7062,31 @@
         <v>0.5</v>
       </c>
       <c r="O7" s="9" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="P7" s="9" t="n">
-        <v>0.6</v>
+        <v>0.375</v>
       </c>
       <c r="Q7" s="9" t="n">
-        <v>0.6</v>
+        <v>0.375</v>
       </c>
       <c r="R7" s="9" t="n">
-        <v>0.6</v>
+        <v>0.375</v>
       </c>
       <c r="S7" s="9" t="n">
-        <v>0.6</v>
+        <v>0.375</v>
       </c>
       <c r="T7" s="9" t="n">
-        <v>0.6</v>
+        <v>0.375</v>
       </c>
       <c r="U7" s="9" t="n">
-        <v>0.6</v>
+        <v>0.375</v>
       </c>
       <c r="V7" s="9" t="n">
-        <v>0.6</v>
+        <v>0.375</v>
       </c>
       <c r="W7" s="9" t="n">
-        <v>0.6</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="8">
@@ -7111,7 +7103,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="9" t="n">
-        <v>0.0932</v>
+        <v>0.151</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -7182,7 +7174,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="9" t="n">
-        <v>0.0932</v>
+        <v>0.151</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -7253,61 +7245,61 @@
         <v>33</v>
       </c>
       <c r="E10" s="9" t="n">
-        <v>0.0932</v>
+        <v>0.151</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="9" t="n">
-        <v>0.0282</v>
+        <v>0.0274</v>
       </c>
       <c r="H10" s="9" t="n">
-        <v>0.0238</v>
+        <v>0.0233</v>
       </c>
       <c r="I10" s="9" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="9" t="n">
-        <v>0.0504</v>
+        <v>0.049</v>
       </c>
       <c r="K10" s="9" t="n">
-        <v>0.012</v>
+        <v>0.0116</v>
       </c>
       <c r="L10" s="9" t="n">
-        <v>0.0217</v>
+        <v>0.0211</v>
       </c>
       <c r="M10" s="9" t="n">
-        <v>0.0098</v>
+        <v>0.0095</v>
       </c>
       <c r="N10" s="9" t="n">
-        <v>0.0433</v>
+        <v>0.042</v>
       </c>
       <c r="O10" s="9" t="n">
-        <v>0.0155333333333333</v>
+        <v>0.0508</v>
       </c>
       <c r="P10" s="9" t="n">
-        <v>0.0155333333333333</v>
+        <v>0.021575</v>
       </c>
       <c r="Q10" s="9" t="n">
-        <v>0.0155333333333333</v>
+        <v>0.021575</v>
       </c>
       <c r="R10" s="9" t="n">
-        <v>0.0466</v>
+        <v>0.064725</v>
       </c>
       <c r="S10" s="9" t="n">
-        <v>0.0155333333333333</v>
+        <v>0.021575</v>
       </c>
       <c r="T10" s="9" t="n">
-        <v>0.0155333333333333</v>
+        <v>0.021575</v>
       </c>
       <c r="U10" s="9" t="n">
-        <v>0.0155333333333333</v>
+        <v>0.021575</v>
       </c>
       <c r="V10" s="9" t="n">
-        <v>0.0466</v>
+        <v>0.064725</v>
       </c>
       <c r="W10" s="9" t="n">
-        <v>0.1864</v>
+        <v>0.2589</v>
       </c>
     </row>
   </sheetData>
